--- a/data/trans_bre/P05B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P05B_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.8483548586922727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06697234026857668</v>
+        <v>0.0669723402685766</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4365401741149954</v>
@@ -649,7 +649,7 @@
         <v>-0.6424546767352473</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3169130819915593</v>
+        <v>0.3169130819915589</v>
       </c>
     </row>
     <row r="5">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6981499929208558</v>
+        <v>-0.8867517906621984</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3093147566380243</v>
+        <v>-0.3830095728546668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.097152757084247</v>
+        <v>-2.072525737380724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4210141504721523</v>
+        <v>-0.4184989136247304</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.284015784171486</v>
+        <v>-0.3203370475762216</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.733584241223234</v>
+        <v>2.560417471894746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8216643763526814</v>
+        <v>0.819910970661613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08273784629241754</v>
+        <v>0.1173023452812753</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3874496903315713</v>
+        <v>0.41316240151341</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.930099835470599</v>
+        <v>1.942273221916758</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>0.5851232808711893</v>
+        <v>0.5171454724565582</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -741,7 +741,7 @@
         <v>0.4386784911344332</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4392321894373186</v>
+        <v>0.4392321894373187</v>
       </c>
     </row>
     <row r="8">
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3902582510526302</v>
+        <v>0.642015319925621</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2845466035767002</v>
+        <v>-0.4776481600275807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6175070466940978</v>
+        <v>-0.5272197395163373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4122875894635632</v>
+        <v>-0.3654389862647369</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1057063565437835</v>
+        <v>0.1177297647442487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1632910531687948</v>
+        <v>-0.2281776829564985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4161667009331189</v>
+        <v>-0.3472330878139206</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6103317264554953</v>
+        <v>-0.5823408063769705</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.777712711241663</v>
+        <v>3.86005186366993</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.388145432762692</v>
+        <v>2.246672043886649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.56483259599824</v>
+        <v>1.594636237082254</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.778547178260134</v>
+        <v>0.7716985811795858</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.340758291878739</v>
+        <v>2.352043691389547</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.061731321761967</v>
+        <v>1.995250236020623</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.196998548879499</v>
+        <v>2.198758080048706</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.171129650240521</v>
+        <v>4.237012100768261</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>1.735608430438807</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1810790794129722</v>
+        <v>-0.1810790794129721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6273354485338294</v>
@@ -852,27 +852,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5432414105683505</v>
+        <v>-0.4555066797892329</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.54647229574419</v>
+        <v>-2.347257285860988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09226738703414637</v>
+        <v>0.1106487749644807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.181720020425145</v>
+        <v>-1.072971351150987</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1852070330891155</v>
+        <v>-0.1899596805374851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7823357432318072</v>
+        <v>-0.8070345741373771</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03559275433602474</v>
-      </c>
-      <c r="J11" s="6" t="inlineStr"/>
+        <v>-0.03784364706108331</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8962847082265131</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -882,27 +884,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.386534005045151</v>
+        <v>3.486621435060952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3003149568084359</v>
+        <v>0.2270154883083602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.495891636391109</v>
+        <v>3.322636022476175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4232590420669876</v>
+        <v>0.3886874732635871</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.138499241314978</v>
+        <v>2.190050978114104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4461967933160123</v>
+        <v>0.2888687973640344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.255903878386417</v>
-      </c>
-      <c r="J12" s="6" t="inlineStr"/>
+        <v>3.172354790545572</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.735583122556032</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -925,7 +929,7 @@
         <v>1.360982233577046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4511434957587771</v>
+        <v>0.4511434957587768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4306020492053965</v>
@@ -937,7 +941,7 @@
         <v>0.9907510432872711</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.16498711567572</v>
+        <v>0.1649871156757199</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03759463987331555</v>
+        <v>-0.1961311577484242</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.832060939510193</v>
+        <v>-1.853449562439654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02192679253325907</v>
+        <v>-0.004096929439222506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.142128802004023</v>
+        <v>-1.031593628899932</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007908229098630482</v>
+        <v>-0.04945948744519816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5734253703162236</v>
+        <v>-0.5772504563197123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.004052401628981074</v>
+        <v>-0.03009156645959918</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3137390093062127</v>
+        <v>-0.3035475126963947</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.232651344253566</v>
+        <v>4.027142085839255</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9192613221449774</v>
+        <v>0.8708330395428541</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.57678018495005</v>
+        <v>2.62695969449675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.810753946847833</v>
+        <v>1.830150104442106</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.125359027142832</v>
+        <v>1.057658157909991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6071027593499484</v>
+        <v>0.5826270389139548</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.119849972375059</v>
+        <v>3.146950618838275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9438932753048757</v>
+        <v>0.9307517617683716</v>
       </c>
     </row>
     <row r="16">
@@ -1048,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7991386661576906</v>
+        <v>0.8476752713935594</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6894059397983762</v>
+        <v>-0.6355698515501602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1201299413133705</v>
+        <v>0.1113377021890571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2703614622277874</v>
+        <v>-0.3237933962137145</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2266589256600832</v>
+        <v>0.2437333126441931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3462573238647885</v>
+        <v>-0.3226618445579236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06520579562511511</v>
+        <v>0.05170847164757597</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.204784637144054</v>
+        <v>-0.233490271377558</v>
       </c>
     </row>
     <row r="18">
@@ -1080,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.657558711128913</v>
+        <v>2.736719708660925</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5839783797854015</v>
+        <v>0.6364107633655534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.414248682077779</v>
+        <v>1.431855354552833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6807525218489222</v>
+        <v>0.6449171813318283</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.06597120349207</v>
+        <v>1.07960332234437</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4386564045153341</v>
+        <v>0.4704112249184417</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.340468522836092</v>
+        <v>1.344346596883397</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8585345668089637</v>
+        <v>0.8050441972166537</v>
       </c>
     </row>
     <row r="19">
